--- a/E2EProject/src/test/resources/TestData/TestData.xlsx
+++ b/E2EProject/src/test/resources/TestData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakth\eclipse-workspace\E2EProject\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakth\git\E2E\E2EProject\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719F87EF-63BA-4342-8948-856F9095E3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9B2B43-EB72-4A3B-811B-55FEBA638AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -208,9 +208,6 @@
     <t>Product</t>
   </si>
   <si>
-    <t>Et Vous Green Floral</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>CH65 9HD</t>
+  </si>
+  <si>
+    <t>Green Folk Print V-Neck Mini Dress</t>
   </si>
 </sst>
 </file>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9554A5F-002C-4A48-B7B5-2B57DC4FE421}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1067,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C0875E-A38B-41FD-8708-3BA439BB16B4}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1082,83 +1082,83 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="C2" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="C3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="C4" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1190,18 +1190,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
